--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R03A 2# 制袋机运行记录.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R03A 2# 制袋机运行记录.xlsx
@@ -838,8 +838,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1605,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1665,24 +1686,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1707,38 +1710,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2050,7 +2050,7 @@
       <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
     <col min="2" max="8" width="7.875" style="4" customWidth="1"/>
@@ -2061,7 +2061,7 @@
     <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2083,45 +2083,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-    </row>
-    <row r="3" spans="1:16" s="41" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+    </row>
+    <row r="3" spans="1:16" s="41" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
       <c r="M3" s="43"/>
       <c r="N3" s="44" t="s">
         <v>14</v>
@@ -2129,7 +2129,7 @@
       <c r="O3" s="45"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" s="41" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:16" s="41" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>28</v>
       </c>
@@ -2142,59 +2142,59 @@
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
       <c r="P4" s="48"/>
     </row>
-    <row r="5" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="65" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="79" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78"/>
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2216,16 +2216,16 @@
       <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="73"/>
-    </row>
-    <row r="7" spans="1:16" ht="22.5" customHeight="1">
+      <c r="I6" s="73"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="80"/>
+    </row>
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2243,7 +2243,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="22.5" customHeight="1">
+    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2261,7 +2261,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="22.5" customHeight="1">
+    <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2279,7 +2279,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="22.5" customHeight="1">
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -2297,7 +2297,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="22.5" customHeight="1">
+    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -2315,7 +2315,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="22.5" customHeight="1">
+    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -2333,7 +2333,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="22.5" customHeight="1">
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -2351,7 +2351,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1">
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2369,7 +2369,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="22.5" customHeight="1">
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2387,7 +2387,7 @@
       <c r="O15" s="20"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
@@ -2405,27 +2405,27 @@
       <c r="O16" s="29"/>
       <c r="P16" s="31"/>
     </row>
-    <row r="17" spans="1:16" ht="19.5" customHeight="1">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="82"/>
-    </row>
-    <row r="18" spans="1:16" ht="19.5" customHeight="1">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
+    </row>
+    <row r="18" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -2443,25 +2443,25 @@
       <c r="O18" s="37"/>
       <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="1:16" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-    </row>
-    <row r="20" spans="1:16" ht="29.25" customHeight="1">
+    <row r="19" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -2483,11 +2483,12 @@
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A17:P17"/>
     <mergeCell ref="A19:P19"/>
     <mergeCell ref="A2:P2"/>
@@ -2504,7 +2505,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="I3:L4"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2521,7 +2521,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.875" style="4" customWidth="1"/>
     <col min="3" max="4" width="7.875" style="4" customWidth="1"/>
@@ -2533,7 +2533,7 @@
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" customHeight="1">
+    <row r="1" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2557,29 +2557,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-    </row>
-    <row r="3" spans="1:18" s="41" customFormat="1" ht="24" customHeight="1">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+    </row>
+    <row r="3" spans="1:18" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50" t="s">
@@ -2593,23 +2593,23 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75" t="s">
+      <c r="K3" s="82"/>
+      <c r="L3" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="54" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="44"/>
       <c r="R3" s="46"/>
     </row>
-    <row r="4" spans="1:18" s="41" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:18" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
@@ -2623,67 +2623,67 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="52"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
       <c r="P4" s="47"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="48"/>
     </row>
-    <row r="5" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A5" s="86" t="s">
+    <row r="5" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89" t="s">
+      <c r="F5" s="90"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="65" t="s">
+      <c r="I5" s="90"/>
+      <c r="J5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="91" t="s">
+      <c r="Q5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="93" t="s">
+      <c r="R5" s="94" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+    <row r="6" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2705,17 +2705,17 @@
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="73"/>
-    </row>
-    <row r="7" spans="1:18" ht="22.5" customHeight="1">
+      <c r="J6" s="73"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="80"/>
+    </row>
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -2735,7 +2735,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1">
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2755,7 +2755,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="12"/>
     </row>
-    <row r="9" spans="1:18" ht="22.5" customHeight="1">
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -2775,7 +2775,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="12"/>
     </row>
-    <row r="10" spans="1:18" ht="22.5" customHeight="1">
+    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -2795,7 +2795,7 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18" ht="22.5" customHeight="1">
+    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -2815,7 +2815,7 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5" customHeight="1">
+    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -2835,7 +2835,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="12"/>
     </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -2855,7 +2855,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="12"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5" customHeight="1">
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -2875,7 +2875,7 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="12"/>
     </row>
-    <row r="15" spans="1:18" ht="22.5" customHeight="1">
+    <row r="15" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="11"/>
@@ -2895,7 +2895,7 @@
       <c r="Q15" s="20"/>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="1:18" ht="22.5" customHeight="1" thickBot="1">
+    <row r="16" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -2915,29 +2915,29 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="57"/>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A17" s="80" t="s">
+    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1">
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="63"/>
+    </row>
+    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="58"/>
       <c r="C18" s="37"/>
@@ -2957,27 +2957,27 @@
       <c r="Q18" s="37"/>
       <c r="R18" s="39"/>
     </row>
-    <row r="19" spans="1:18" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85"/>
-    </row>
-    <row r="20" spans="1:18">
+    <row r="19" spans="1:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="66"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
     </row>
@@ -3012,16 +3012,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="K9:L10"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="4" customWidth="1"/>
     <col min="3" max="4" width="7.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.75" style="4" customWidth="1"/>
@@ -3036,7 +3036,7 @@
     <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="21" customHeight="1">
+    <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3063,32 +3063,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="39" customHeight="1">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-    </row>
-    <row r="3" spans="1:21" ht="20.25" customHeight="1">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+    </row>
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -3105,7 +3105,7 @@
       <c r="N3" s="56"/>
       <c r="O3" s="56"/>
       <c r="P3" s="56"/>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="60" t="s">
         <v>39</v>
       </c>
       <c r="R3" s="56"/>
@@ -3113,62 +3113,62 @@
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
     </row>
-    <row r="4" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A4" s="102" t="s">
+    <row r="4" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="95" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
+      <c r="G4" s="102"/>
+      <c r="H4" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="94" t="s">
+      <c r="S4" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="95" t="s">
+      <c r="T4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="94" t="s">
+      <c r="U4" s="103" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A5" s="103"/>
-      <c r="B5" s="95"/>
+    <row r="5" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="59" t="s">
         <v>34</v>
       </c>
@@ -3199,17 +3199,17 @@
       <c r="L5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-    </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1">
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+    </row>
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3232,7 +3232,7 @@
       <c r="T6" s="17"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3255,7 +3255,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -3278,7 +3278,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3301,7 +3301,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3324,7 +3324,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1">
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3347,7 +3347,7 @@
       <c r="T11" s="17"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1">
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3370,7 +3370,7 @@
       <c r="T12" s="17"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1">
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3393,7 +3393,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1">
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3416,7 +3416,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3439,7 +3439,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3462,7 +3462,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" ht="22.5" customHeight="1">
+    <row r="17" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3485,106 +3485,60 @@
       <c r="T17" s="7"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="13"/>
-    </row>
-    <row r="20" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A20" s="96" t="s">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="98"/>
-    </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="101"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="97"/>
+    </row>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="100"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3597,8 +3551,8 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A20:U20"/>
-    <mergeCell ref="A21:U21"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="A19:U19"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
